--- a/house_price_dống-da.xlsx
+++ b/house_price_dống-da.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1woZYbG5BH3IFnTiBl7U2vdNVYxuiVJ_e\2. Data Science - Outsource\# Artifact\Phần 2 - Sản xuất khoá học Phân tích dữ liệu với Python\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b4a1bc1854f295d/Documents/Python Scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF8605-AD24-417E-AAAC-D66E0B158409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{43FF8605-AD24-417E-AAAC-D66E0B158409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{549B2781-275C-4CE8-B871-71B964CB2B8E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="790" yWindow="0" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7235,27 +7235,27 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1010" sqref="L1010"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1004" sqref="E1004"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="11" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="27.90625" customWidth="1"/>
+    <col min="6" max="6" width="26.08984375" customWidth="1"/>
+    <col min="7" max="11" width="8.6328125" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" customWidth="1"/>
+    <col min="13" max="13" width="35.36328125" customWidth="1"/>
     <col min="14" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="26" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.6328125" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" customWidth="1"/>
+    <col min="19" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>163</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>169</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>180</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>196</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>211</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>217</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>225</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>228</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>231</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>239</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>245</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>248</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>253</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>261</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>268</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>275</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>282</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>284</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>287</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>292</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>298</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>303</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>307</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>313</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>323</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>328</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>329</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>335</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>336</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>338</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>344</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>346</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>348</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>350</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>356</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>357</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>359</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>365</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>372</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>374</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>379</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>385</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>388</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>395</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>397</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>399</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>405</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>213</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>407</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>409</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>416</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>419</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>424</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>425</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>427</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>429</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>431</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>434</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>438</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>439</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>441</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>442</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>446</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>447</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>450</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>455</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>457</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>459</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>461</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>466</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>468</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>471</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>474</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>476</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>477</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>479</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>482</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>484</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>486</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>488</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>491</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>493</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>495</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>496</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>498</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>499</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>501</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>503</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>505</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>507</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>508</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>510</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>511</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>513</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>515</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>510</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>516</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>518</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>520</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>521</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>522</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>523</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>524</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>526</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>527</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>528</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>529</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>530</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>531</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>507</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>532</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>534</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>537</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>538</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>540</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>541</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>542</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>543</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>545</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>547</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>548</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>549</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>551</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>554</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>555</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>556</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>559</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>560</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>561</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>563</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>564</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>565</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>567</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>569</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>570</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>573</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>575</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>576</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>578</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>579</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>580</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>581</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>582</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>583</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>586</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>587</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>589</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>590</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>591</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>593</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>594</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>597</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>599</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>600</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>602</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>604</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>606</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>607</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>609</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>610</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>611</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>613</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>614</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>615</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>616</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>618</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>619</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>621</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>624</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>625</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>628</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>631</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>633</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>635</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>637</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>639</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>640</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>642</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>644</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>645</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>646</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>647</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>649</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>651</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>653</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>654</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>656</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>657</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>658</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>660</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>661</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>662</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>663</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>665</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>667</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>670</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>672</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>675</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>529</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>676</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>678</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>680</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>681</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>682</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>684</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>686</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>689</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>691</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>692</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>693</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>606</v>
       </c>
@@ -16659,7 +16659,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>695</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>510</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>696</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>698</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>698</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>699</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>700</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>702</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>704</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>708</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>714</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>715</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>716</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>717</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>719</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>720</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>721</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>722</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>729</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>735</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>739</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>741</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>747</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>749</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>751</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>756</v>
       </c>
@@ -17719,7 +17719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>763</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>765</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>772</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>780</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>784</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>786</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>787</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>788</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>789</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>791</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>793</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>794</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>795</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>796</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>801</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>803</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>804</v>
       </c>
@@ -18419,7 +18419,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>810</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>813</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>819</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>822</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>827</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>829</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>831</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>837</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>841</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>843</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>844</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>849</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>851</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>856</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>862</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>864</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>867</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>868</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>870</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>872</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>874</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>879</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>880</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>882</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>883</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>885</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>886</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>888</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>892</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>894</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>899</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>902</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>906</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>907</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>908</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>909</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>912</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>913</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>917</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>918</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>922</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>927</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>928</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>930</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>932</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>937</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>938</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>939</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>943</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>949</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>951</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>956</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>959</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>960</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>966</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>970</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>973</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>974</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>978</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>979</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>980</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>981</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>983</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>985</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>990</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>991</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>993</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>997</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>1001</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>1003</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="352" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>1005</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="353" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>1007</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="354" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>1011</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="355" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>1012</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="356" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>1014</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>1015</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="358" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>1019</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>1025</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="360" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>1027</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="361" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>1028</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="362" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>1029</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="363" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>1031</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="364" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>1033</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="365" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>1034</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="366" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>1035</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="367" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>1040</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="368" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>1041</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="369" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>1045</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="370" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>1046</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="371" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>1047</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="372" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>1050</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="373" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>1053</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="374" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>1054</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="375" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>1056</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="376" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>1060</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="377" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>1062</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="378" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>1066</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="379" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>1071</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="380" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>1075</v>
       </c>
@@ -23087,7 +23087,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="381" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>1079</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="382" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>1084</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="383" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>1088</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="384" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>1089</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="385" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>1091</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="386" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>1093</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="387" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>1094</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="388" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>1095</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="389" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>1099</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="390" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>1104</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="391" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>1108</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="392" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>1114</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="393" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>1119</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="394" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>1121</v>
       </c>
@@ -23760,7 +23760,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="395" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>1123</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="396" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>1124</v>
       </c>
@@ -23851,7 +23851,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="397" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>1125</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="398" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>1129</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="399" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>1132</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="400" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>1133</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="401" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>1136</v>
       </c>
@@ -24086,7 +24086,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="402" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>1142</v>
       </c>
@@ -24133,7 +24133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="403" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>1143</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="404" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>1144</v>
       </c>
@@ -24227,7 +24227,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="405" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>1148</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>1149</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="407" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>1152</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="408" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="409" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>323</v>
       </c>
@@ -24477,7 +24477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="410" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>1156</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="411" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="412" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>1163</v>
       </c>
@@ -24621,7 +24621,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="413" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>1168</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="414" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>1170</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="415" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>1173</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>1174</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="417" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>1175</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="418" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>1177</v>
       </c>
@@ -24894,7 +24894,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="419" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>1179</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="420" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>1180</v>
       </c>
@@ -24988,7 +24988,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="421" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>1182</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="422" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>1184</v>
       </c>
@@ -25082,7 +25082,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="423" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>1186</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="424" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>1189</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="425" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>1194</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="426" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>1197</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="427" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>1198</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="428" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>1199</v>
       </c>
@@ -25367,7 +25367,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="429" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>1204</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="430" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>1205</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="431" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>1206</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="432" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>1207</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="433" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>1212</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="434" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>1214</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="435" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>1215</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="436" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>1219</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="437" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>1220</v>
       </c>
@@ -25787,7 +25787,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="438" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>1221</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="439" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>1223</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="440" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>1225</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="441" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>1226</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="442" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>1228</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="443" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>1233</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="444" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>1237</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="445" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>1243</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="446" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>1246</v>
       </c>
@@ -26210,7 +26210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="447" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>1249</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="448" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>1251</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="449" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>1252</v>
       </c>
@@ -26360,7 +26360,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="450" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>1253</v>
       </c>
@@ -26407,7 +26407,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="451" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>1254</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="452" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>1256</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="453" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>1257</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="454" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>1259</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="455" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>1263</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="456" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>1265</v>
       </c>
@@ -26686,7 +26686,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="457" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>1267</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="458" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>1269</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="459" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>1271</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="460" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>1272</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="461" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>1275</v>
       </c>
@@ -26915,7 +26915,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="462" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>1280</v>
       </c>
@@ -26962,7 +26962,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="463" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>1285</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="464" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>1286</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="465" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>1287</v>
       </c>
@@ -27100,7 +27100,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="466" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>1288</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="467" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>1290</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="468" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>1292</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="469" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>1295</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="470" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>1296</v>
       </c>
@@ -27338,7 +27338,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="471" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>1297</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="472" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>1299</v>
       </c>
@@ -27435,7 +27435,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="473" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>1300</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="474" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>1301</v>
       </c>
@@ -27532,7 +27532,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="475" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>1305</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="476" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>1306</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="477" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>1310</v>
       </c>
@@ -27670,7 +27670,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="478" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>1311</v>
       </c>
@@ -27717,7 +27717,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="479" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>1313</v>
       </c>
@@ -27764,7 +27764,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="480" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>1317</v>
       </c>
@@ -27811,7 +27811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>1318</v>
       </c>
@@ -27849,7 +27849,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="482" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>1320</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="483" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>1321</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="484" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>1326</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="485" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>1328</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="486" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>1331</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="487" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>1332</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="488" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>1333</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="489" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>1335</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="490" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>1337</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="491" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>1339</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="492" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>1340</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="493" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>1342</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="494" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>1344</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="495" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>1346</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="496" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>1347</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="497" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>1348</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="498" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>1350</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="499" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>1352</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="500" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>1353</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="501" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>1354</v>
       </c>
@@ -28774,7 +28774,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="502" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>1355</v>
       </c>
@@ -28821,7 +28821,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="503" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>1356</v>
       </c>
@@ -28871,7 +28871,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="504" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>1361</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="505" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>1362</v>
       </c>
@@ -28965,7 +28965,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="506" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>1364</v>
       </c>
@@ -29012,7 +29012,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="507" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>1367</v>
       </c>
@@ -29059,7 +29059,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="508" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>1371</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="509" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>1377</v>
       </c>
@@ -29147,7 +29147,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="510" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>1378</v>
       </c>
@@ -29197,7 +29197,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="511" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>1379</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="512" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>1380</v>
       </c>
@@ -29288,7 +29288,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="513" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>1381</v>
       </c>
@@ -29338,7 +29338,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="514" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>1382</v>
       </c>
@@ -29385,7 +29385,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="515" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>1384</v>
       </c>
@@ -29435,7 +29435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="516" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>1386</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="517" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>1388</v>
       </c>
@@ -29529,7 +29529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="518" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>1389</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="519" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>1393</v>
       </c>
@@ -29623,7 +29623,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="520" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>1397</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="521" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>1398</v>
       </c>
@@ -29717,7 +29717,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="522" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>1402</v>
       </c>
@@ -29764,7 +29764,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="523" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>1404</v>
       </c>
@@ -29811,7 +29811,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="524" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>1406</v>
       </c>
@@ -29858,7 +29858,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="525" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>1411</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="526" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>1413</v>
       </c>
@@ -29952,7 +29952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="527" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>1415</v>
       </c>
@@ -30002,7 +30002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="528" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>1416</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="529" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>1417</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="530" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>1418</v>
       </c>
@@ -30143,7 +30143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>1420</v>
       </c>
@@ -30190,7 +30190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="532" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>1422</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="533" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>1424</v>
       </c>
@@ -30284,7 +30284,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="534" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>1425</v>
       </c>
@@ -30334,7 +30334,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="535" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>1430</v>
       </c>
@@ -30378,7 +30378,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="536" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>1432</v>
       </c>
@@ -30425,7 +30425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="537" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>1434</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="538" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>1437</v>
       </c>
@@ -30522,7 +30522,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="539" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>1438</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="540" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>1442</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="541" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>1444</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="542" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>1448</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="543" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>1450</v>
       </c>
@@ -30757,7 +30757,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>1454</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="545" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>1458</v>
       </c>
@@ -30854,7 +30854,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="546" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>1459</v>
       </c>
@@ -30898,7 +30898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="547" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>1460</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="548" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>1464</v>
       </c>
@@ -30992,7 +30992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="549" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>1466</v>
       </c>
@@ -31039,7 +31039,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="550" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>1467</v>
       </c>
@@ -31083,7 +31083,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="551" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>1468</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="552" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>1469</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="553" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>1471</v>
       </c>
@@ -31221,7 +31221,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="554" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>1472</v>
       </c>
@@ -31265,7 +31265,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="555" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>1476</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="556" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>1478</v>
       </c>
@@ -31359,7 +31359,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="557" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>1484</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="558" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>1485</v>
       </c>
@@ -31453,7 +31453,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="559" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>1487</v>
       </c>
@@ -31497,7 +31497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="560" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>1488</v>
       </c>
@@ -31544,7 +31544,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="561" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>1490</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="562" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>1491</v>
       </c>
@@ -31635,7 +31635,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="563" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>1495</v>
       </c>
@@ -31682,7 +31682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="564" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>1496</v>
       </c>
@@ -31729,7 +31729,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="565" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>1498</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="566" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>1500</v>
       </c>
@@ -31823,7 +31823,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="567" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>1501</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="568" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>1504</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="569" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>1506</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="570" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>1510</v>
       </c>
@@ -32005,7 +32005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="571" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>1511</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="572" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>1513</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="573" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>1516</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="574" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>1517</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="575" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>1518</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="576" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>1519</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="577" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>1522</v>
       </c>
@@ -32337,7 +32337,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="578" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>1524</v>
       </c>
@@ -32384,7 +32384,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="579" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>1527</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="580" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>1531</v>
       </c>
@@ -32484,7 +32484,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="581" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>1537</v>
       </c>
@@ -32534,7 +32534,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="582" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>1538</v>
       </c>
@@ -32569,7 +32569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="583" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>1541</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="584" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>1542</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="585" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>1543</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="586" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>1547</v>
       </c>
@@ -32754,7 +32754,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="587" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>1548</v>
       </c>
@@ -32804,7 +32804,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="588" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>1552</v>
       </c>
@@ -32848,7 +32848,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="589" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>1554</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="590" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>1555</v>
       </c>
@@ -32939,7 +32939,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="591" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>1556</v>
       </c>
@@ -32986,7 +32986,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="592" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>1557</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="593" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>1558</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="594" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>1559</v>
       </c>
@@ -33133,7 +33133,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="595" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>1563</v>
       </c>
@@ -33174,7 +33174,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="596" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>1564</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="597" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>1566</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="598" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>1567</v>
       </c>
@@ -33315,7 +33315,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="599" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>1568</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="600" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>1569</v>
       </c>
@@ -33400,7 +33400,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="601" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>1571</v>
       </c>
@@ -33444,7 +33444,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="602" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>1573</v>
       </c>
@@ -33488,7 +33488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="603" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>1575</v>
       </c>
@@ -33532,7 +33532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="604" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>1576</v>
       </c>
@@ -33576,7 +33576,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="605" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>1577</v>
       </c>
@@ -33620,7 +33620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>1579</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="607" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>1584</v>
       </c>
@@ -33717,7 +33717,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="608" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>1587</v>
       </c>
@@ -33761,7 +33761,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="609" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>1593</v>
       </c>
@@ -33811,7 +33811,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="610" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>1595</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="611" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>1596</v>
       </c>
@@ -33905,7 +33905,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="612" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>1601</v>
       </c>
@@ -33955,7 +33955,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="613" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>1602</v>
       </c>
@@ -34005,7 +34005,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="614" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>1603</v>
       </c>
@@ -34055,7 +34055,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="615" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34111,7 +34111,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="616" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>1607</v>
       </c>
@@ -34161,7 +34161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="617" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>1608</v>
       </c>
@@ -34208,7 +34208,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="618" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>1610</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="619" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>1611</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="620" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>1613</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="621" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>1614</v>
       </c>
@@ -34405,7 +34405,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="622" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>1615</v>
       </c>
@@ -34446,7 +34446,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="623" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34493,7 +34493,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="624" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>1617</v>
       </c>
@@ -34540,7 +34540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="625" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>1618</v>
       </c>
@@ -34587,7 +34587,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="626" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>1619</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="627" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>1621</v>
       </c>
@@ -34681,7 +34681,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="628" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34725,7 +34725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="629" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>1625</v>
       </c>
@@ -34772,7 +34772,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="630" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="631" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>1627</v>
       </c>
@@ -34863,7 +34863,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="632" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>1628</v>
       </c>
@@ -34898,7 +34898,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="633" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>1630</v>
       </c>
@@ -34945,7 +34945,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="634" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>1634</v>
       </c>
@@ -34989,7 +34989,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="635" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>1637</v>
       </c>
@@ -35030,7 +35030,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="636" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>1638</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="637" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>1639</v>
       </c>
@@ -35124,7 +35124,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="638" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>1641</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="639" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>1644</v>
       </c>
@@ -35215,7 +35215,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="640" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>1647</v>
       </c>
@@ -35262,7 +35262,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="641" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>1648</v>
       </c>
@@ -35306,7 +35306,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="642" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>1649</v>
       </c>
@@ -35350,7 +35350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="643" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>1652</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="644" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>1657</v>
       </c>
@@ -35444,7 +35444,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="645" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>1660</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="646" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>1661</v>
       </c>
@@ -35538,7 +35538,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="647" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>1663</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="648" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>1665</v>
       </c>
@@ -35626,7 +35626,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="649" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>1667</v>
       </c>
@@ -35670,7 +35670,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="650" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>1672</v>
       </c>
@@ -35714,7 +35714,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="651" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>1674</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="652" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>1676</v>
       </c>
@@ -35793,7 +35793,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="653" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>1679</v>
       </c>
@@ -35840,7 +35840,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="654" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>1681</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="655" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>1682</v>
       </c>
@@ -35940,7 +35940,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="656" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>1686</v>
       </c>
@@ -35987,7 +35987,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="657" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>1687</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="658" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>1691</v>
       </c>
@@ -36072,7 +36072,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="659" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>1692</v>
       </c>
@@ -36116,7 +36116,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="660" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>1694</v>
       </c>
@@ -36160,7 +36160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="661" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>1695</v>
       </c>
@@ -36201,7 +36201,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="662" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>1696</v>
       </c>
@@ -36251,7 +36251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="663" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>1697</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="664" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>1699</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="665" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>1701</v>
       </c>
@@ -36398,7 +36398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="666" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>1704</v>
       </c>
@@ -36445,7 +36445,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="667" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
         <v>1705</v>
       </c>
@@ -36480,7 +36480,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="668" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
         <v>1706</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="669" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
         <v>1707</v>
       </c>
@@ -36577,7 +36577,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="670" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
         <v>1708</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="671" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>1709</v>
       </c>
@@ -36674,7 +36674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="672" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>1710</v>
       </c>
@@ -36715,7 +36715,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="673" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>1714</v>
       </c>
@@ -36765,7 +36765,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="674" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>1718</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="675" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>1722</v>
       </c>
@@ -36865,7 +36865,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="676" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>1723</v>
       </c>
@@ -36900,7 +36900,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="677" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
         <v>1725</v>
       </c>
@@ -36932,7 +36932,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>1726</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="679" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>1727</v>
       </c>
@@ -37020,7 +37020,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="680" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>1729</v>
       </c>
@@ -37067,7 +37067,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="681" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>1733</v>
       </c>
@@ -37114,7 +37114,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="682" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>1734</v>
       </c>
@@ -37149,7 +37149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="683" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>1736</v>
       </c>
@@ -37184,7 +37184,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="684" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
         <v>1737</v>
       </c>
@@ -37219,7 +37219,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="685" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
         <v>1738</v>
       </c>
@@ -37263,7 +37263,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="686" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
         <v>1739</v>
       </c>
@@ -37307,7 +37307,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="687" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
         <v>1741</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="688" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
         <v>1742</v>
       </c>
@@ -37398,7 +37398,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="689" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
         <v>1747</v>
       </c>
@@ -37445,7 +37445,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="690" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
         <v>1749</v>
       </c>
@@ -37492,7 +37492,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="691" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
         <v>1751</v>
       </c>
@@ -37539,7 +37539,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="692" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
         <v>1752</v>
       </c>
@@ -37586,7 +37586,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="693" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
         <v>1753</v>
       </c>
@@ -37621,7 +37621,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="694" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
         <v>1754</v>
       </c>
@@ -37671,7 +37671,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="695" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
         <v>1756</v>
       </c>
@@ -37712,7 +37712,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="696" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
         <v>1757</v>
       </c>
@@ -37747,7 +37747,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="697" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
         <v>1759</v>
       </c>
@@ -37797,7 +37797,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="698" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
         <v>1760</v>
       </c>
@@ -37844,7 +37844,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="699" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
         <v>1762</v>
       </c>
@@ -37891,7 +37891,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="700" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
         <v>1763</v>
       </c>
@@ -37941,7 +37941,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="701" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
         <v>1764</v>
       </c>
@@ -37985,7 +37985,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="702" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
         <v>1765</v>
       </c>
@@ -38026,7 +38026,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="703" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
         <v>1769</v>
       </c>
@@ -38064,7 +38064,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="704" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
         <v>1770</v>
       </c>
@@ -38111,7 +38111,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="705" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
         <v>1774</v>
       </c>
@@ -38161,7 +38161,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="706" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
         <v>1776</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="707" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
         <v>1777</v>
       </c>
@@ -38255,7 +38255,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="708" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
         <v>1778</v>
       </c>
@@ -38299,7 +38299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="709" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
         <v>1780</v>
       </c>
@@ -38346,7 +38346,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="710" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
         <v>1783</v>
       </c>
@@ -38393,7 +38393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="711" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
         <v>1784</v>
       </c>
@@ -38440,7 +38440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="712" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
         <v>1785</v>
       </c>
@@ -38490,7 +38490,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="713" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
         <v>1786</v>
       </c>
@@ -38540,7 +38540,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="714" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
         <v>1787</v>
       </c>
@@ -38587,7 +38587,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="715" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
         <v>1789</v>
       </c>
@@ -38631,7 +38631,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="716" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
         <v>1791</v>
       </c>
@@ -38666,7 +38666,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="717" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
         <v>1796</v>
       </c>
@@ -38707,7 +38707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="718" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
         <v>1797</v>
       </c>
@@ -38757,7 +38757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="719" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
         <v>1798</v>
       </c>
@@ -38792,7 +38792,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="720" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
         <v>1800</v>
       </c>
@@ -38836,7 +38836,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="721" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
         <v>1801</v>
       </c>
@@ -38883,7 +38883,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="722" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
         <v>1805</v>
       </c>
@@ -38918,7 +38918,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="723" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
         <v>1806</v>
       </c>
@@ -38950,7 +38950,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="724" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
         <v>1807</v>
       </c>
@@ -38991,7 +38991,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="725" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
         <v>1810</v>
       </c>
@@ -39035,7 +39035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="726" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
         <v>1811</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="727" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
         <v>1813</v>
       </c>
@@ -39138,7 +39138,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="728" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
         <v>1816</v>
       </c>
@@ -39179,7 +39179,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="729" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
         <v>1818</v>
       </c>
@@ -39214,7 +39214,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="730" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
         <v>1822</v>
       </c>
@@ -39258,7 +39258,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="731" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
         <v>1823</v>
       </c>
@@ -39299,7 +39299,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="732" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
         <v>1826</v>
       </c>
@@ -39346,7 +39346,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="733" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
         <v>1828</v>
       </c>
@@ -39390,7 +39390,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="734" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
         <v>1833</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="735" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
         <v>1835</v>
       </c>
@@ -39487,7 +39487,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="736" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
         <v>1839</v>
       </c>
@@ -39534,7 +39534,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="737" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
         <v>1840</v>
       </c>
@@ -39581,7 +39581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="738" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
         <v>1841</v>
       </c>
@@ -39628,7 +39628,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="739" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
         <v>1843</v>
       </c>
@@ -39675,7 +39675,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="740" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
         <v>1846</v>
       </c>
@@ -39722,7 +39722,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="741" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
         <v>1847</v>
       </c>
@@ -39769,7 +39769,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="742" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
         <v>1849</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="743" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
         <v>163</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="744" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
         <v>1850</v>
       </c>
@@ -39910,7 +39910,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="745" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
         <v>1851</v>
       </c>
@@ -39957,7 +39957,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="746" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
         <v>1855</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="747" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
         <v>1856</v>
       </c>
@@ -40045,7 +40045,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="748" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="1" t="s">
         <v>1859</v>
       </c>
@@ -40092,7 +40092,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="749" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
         <v>1860</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="750" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
         <v>1861</v>
       </c>
@@ -40186,7 +40186,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="751" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
         <v>1865</v>
       </c>
@@ -40224,7 +40224,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="752" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
         <v>1867</v>
       </c>
@@ -40259,7 +40259,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="753" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
         <v>1868</v>
       </c>
@@ -40303,7 +40303,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="754" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
         <v>1869</v>
       </c>
@@ -40347,7 +40347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="755" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
         <v>1871</v>
       </c>
@@ -40397,7 +40397,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="756" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="1" t="s">
         <v>1872</v>
       </c>
@@ -40447,7 +40447,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="757" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
         <v>1874</v>
       </c>
@@ -40494,7 +40494,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="758" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
         <v>1878</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="759" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
         <v>1880</v>
       </c>
@@ -40585,7 +40585,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="760" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="1" t="s">
         <v>1882</v>
       </c>
@@ -40623,7 +40623,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="761" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
         <v>1885</v>
       </c>
@@ -40670,7 +40670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="762" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
         <v>1887</v>
       </c>
@@ -40714,7 +40714,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="763" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
         <v>1889</v>
       </c>
@@ -40755,7 +40755,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="764" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
         <v>1890</v>
       </c>
@@ -40802,7 +40802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="765" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
         <v>1892</v>
       </c>
@@ -40852,7 +40852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="766" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
         <v>1894</v>
       </c>
@@ -40902,7 +40902,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="767" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
         <v>1895</v>
       </c>
@@ -40946,7 +40946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="768" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
         <v>1897</v>
       </c>
@@ -40996,7 +40996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="769" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
         <v>1898</v>
       </c>
@@ -41046,7 +41046,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="770" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
         <v>1900</v>
       </c>
@@ -41093,7 +41093,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="771" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
         <v>1901</v>
       </c>
@@ -41143,7 +41143,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="772" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="1" t="s">
         <v>1906</v>
       </c>
@@ -41190,7 +41190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="773" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="1" t="s">
         <v>1907</v>
       </c>
@@ -41237,7 +41237,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="774" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
         <v>1908</v>
       </c>
@@ -41281,7 +41281,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="775" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="1" t="s">
         <v>1910</v>
       </c>
@@ -41322,7 +41322,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="776" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
         <v>1912</v>
       </c>
@@ -41372,7 +41372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="777" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
         <v>1913</v>
       </c>
@@ -41419,7 +41419,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="778" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
         <v>1914</v>
       </c>
@@ -41466,7 +41466,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="779" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="1" t="s">
         <v>1915</v>
       </c>
@@ -41513,7 +41513,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="780" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="1" t="s">
         <v>1916</v>
       </c>
@@ -41563,7 +41563,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="781" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="1" t="s">
         <v>1921</v>
       </c>
@@ -41610,7 +41610,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="782" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
         <v>1925</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="783" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="1" t="s">
         <v>1926</v>
       </c>
@@ -41707,7 +41707,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="784" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="1" t="s">
         <v>1930</v>
       </c>
@@ -41751,7 +41751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="785" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="1" t="s">
         <v>1931</v>
       </c>
@@ -41795,7 +41795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="786" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
         <v>1932</v>
       </c>
@@ -41842,7 +41842,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="787" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
         <v>1933</v>
       </c>
@@ -41889,7 +41889,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="788" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
         <v>1934</v>
       </c>
@@ -41930,7 +41930,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="789" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="1" t="s">
         <v>1937</v>
       </c>
@@ -41971,7 +41971,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="790" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
         <v>1941</v>
       </c>
@@ -42018,7 +42018,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="791" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
         <v>1942</v>
       </c>
@@ -42065,7 +42065,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="792" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="1" t="s">
         <v>1943</v>
       </c>
@@ -42115,7 +42115,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="793" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
         <v>1946</v>
       </c>
@@ -42165,7 +42165,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="794" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
         <v>1947</v>
       </c>
@@ -42212,7 +42212,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="795" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
         <v>1948</v>
       </c>
@@ -42259,7 +42259,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="796" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="1" t="s">
         <v>1954</v>
       </c>
@@ -42306,7 +42306,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="797" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
         <v>1955</v>
       </c>
@@ -42356,7 +42356,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="798" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="1" t="s">
         <v>1957</v>
       </c>
@@ -42397,7 +42397,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="799" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="1" t="s">
         <v>1959</v>
       </c>
@@ -42447,7 +42447,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="800" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="1" t="s">
         <v>1961</v>
       </c>
@@ -42497,7 +42497,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="801" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="1" t="s">
         <v>1963</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="802" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="1" t="s">
         <v>1965</v>
       </c>
@@ -42597,7 +42597,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="803" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="1" t="s">
         <v>1966</v>
       </c>
@@ -42644,7 +42644,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="804" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
         <v>1968</v>
       </c>
@@ -42685,7 +42685,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="805" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="1" t="s">
         <v>1969</v>
       </c>
@@ -42735,7 +42735,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="806" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="1" t="s">
         <v>1975</v>
       </c>
@@ -42782,7 +42782,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="807" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="1" t="s">
         <v>1976</v>
       </c>
@@ -42829,7 +42829,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="808" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="1" t="s">
         <v>1977</v>
       </c>
@@ -42876,7 +42876,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="809" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="1" t="s">
         <v>1978</v>
       </c>
@@ -42923,7 +42923,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="810" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="1" t="s">
         <v>1979</v>
       </c>
@@ -42967,7 +42967,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="811" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="1" t="s">
         <v>1980</v>
       </c>
@@ -43008,7 +43008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="812" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="1" t="s">
         <v>1981</v>
       </c>
@@ -43055,7 +43055,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="813" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="1" t="s">
         <v>1983</v>
       </c>
@@ -43105,7 +43105,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="814" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="1" t="s">
         <v>1984</v>
       </c>
@@ -43146,7 +43146,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="815" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="1" t="s">
         <v>1988</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="816" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="1" t="s">
         <v>1989</v>
       </c>
@@ -43246,7 +43246,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="817" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="1" t="s">
         <v>1991</v>
       </c>
@@ -43296,7 +43296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="818" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="1" t="s">
         <v>1993</v>
       </c>
@@ -43346,7 +43346,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="819" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="1" t="s">
         <v>1994</v>
       </c>
@@ -43396,7 +43396,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="820" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="1" t="s">
         <v>1997</v>
       </c>
@@ -43431,7 +43431,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="821" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="1" t="s">
         <v>1998</v>
       </c>
@@ -43481,7 +43481,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="822" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="1" t="s">
         <v>1999</v>
       </c>
@@ -43528,7 +43528,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="823" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="1" t="s">
         <v>2000</v>
       </c>
@@ -43578,7 +43578,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="824" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="1" t="s">
         <v>2002</v>
       </c>
@@ -43628,7 +43628,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="825" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="1" t="s">
         <v>2006</v>
       </c>
@@ -43678,7 +43678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="826" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="1" t="s">
         <v>2008</v>
       </c>
@@ -43731,7 +43731,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="827" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="1" t="s">
         <v>2009</v>
       </c>
@@ -43781,7 +43781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="828" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="1" t="s">
         <v>2010</v>
       </c>
@@ -43825,7 +43825,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="829" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="1" t="s">
         <v>2012</v>
       </c>
@@ -43881,7 +43881,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="830" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="1" t="s">
         <v>2013</v>
       </c>
@@ -43928,7 +43928,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="831" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="1" t="s">
         <v>2018</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="832" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="1" t="s">
         <v>2020</v>
       </c>
@@ -44025,7 +44025,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="833" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="1" t="s">
         <v>2022</v>
       </c>
@@ -44072,7 +44072,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="834" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="1" t="s">
         <v>2023</v>
       </c>
@@ -44119,7 +44119,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="835" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="1" t="s">
         <v>2024</v>
       </c>
@@ -44166,7 +44166,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="836" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="1" t="s">
         <v>2025</v>
       </c>
@@ -44213,7 +44213,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="837" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="1" t="s">
         <v>2026</v>
       </c>
@@ -44260,7 +44260,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="838" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="1" t="s">
         <v>2030</v>
       </c>
@@ -44307,7 +44307,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="839" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="1" t="s">
         <v>2031</v>
       </c>
@@ -44357,7 +44357,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="840" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="1" t="s">
         <v>2036</v>
       </c>
@@ -44401,7 +44401,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="841" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="1" t="s">
         <v>2038</v>
       </c>
@@ -44448,7 +44448,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="842" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
         <v>2040</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="843" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="1" t="s">
         <v>2043</v>
       </c>
@@ -44542,7 +44542,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="844" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="1" t="s">
         <v>2045</v>
       </c>
@@ -44589,7 +44589,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="845" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="1" t="s">
         <v>2049</v>
       </c>
@@ -44636,7 +44636,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="846" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="1" t="s">
         <v>2051</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="847" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="1" t="s">
         <v>2053</v>
       </c>
@@ -44730,7 +44730,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="848" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="1" t="s">
         <v>2057</v>
       </c>
@@ -44777,7 +44777,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="849" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="1" t="s">
         <v>2058</v>
       </c>
@@ -44824,7 +44824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="850" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="1" t="s">
         <v>2060</v>
       </c>
@@ -44871,7 +44871,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="851" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="1" t="s">
         <v>2062</v>
       </c>
@@ -44918,7 +44918,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="852" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="1" t="s">
         <v>2064</v>
       </c>
@@ -44965,7 +44965,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="853" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="1" t="s">
         <v>2066</v>
       </c>
@@ -45012,7 +45012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="854" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="1" t="s">
         <v>2067</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="855" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="1" t="s">
         <v>2070</v>
       </c>
@@ -45106,7 +45106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="856" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="1" t="s">
         <v>2071</v>
       </c>
@@ -45150,7 +45150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="857" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="1" t="s">
         <v>2073</v>
       </c>
@@ -45191,7 +45191,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="858" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="1" t="s">
         <v>2074</v>
       </c>
@@ -45241,7 +45241,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="859" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="1" t="s">
         <v>2076</v>
       </c>
@@ -45291,7 +45291,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="860" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="1" t="s">
         <v>2080</v>
       </c>
@@ -45335,7 +45335,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="861" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="1" t="s">
         <v>2082</v>
       </c>
@@ -45376,7 +45376,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="862" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="1" t="s">
         <v>2083</v>
       </c>
@@ -45417,7 +45417,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="863" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="1" t="s">
         <v>2084</v>
       </c>
@@ -45464,7 +45464,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="864" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="1" t="s">
         <v>2089</v>
       </c>
@@ -45511,7 +45511,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="865" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="1" t="s">
         <v>2090</v>
       </c>
@@ -45552,7 +45552,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="866" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="1" t="s">
         <v>2091</v>
       </c>
@@ -45593,7 +45593,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="867" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="1" t="s">
         <v>2093</v>
       </c>
@@ -45643,7 +45643,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="868" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="1" t="s">
         <v>2095</v>
       </c>
@@ -45687,7 +45687,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="869" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="1" t="s">
         <v>2096</v>
       </c>
@@ -45737,7 +45737,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="870" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="1" t="s">
         <v>2097</v>
       </c>
@@ -45778,7 +45778,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="871" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="1" t="s">
         <v>2098</v>
       </c>
@@ -45828,7 +45828,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="872" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="1" t="s">
         <v>2100</v>
       </c>
@@ -45878,7 +45878,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="873" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="1" t="s">
         <v>2101</v>
       </c>
@@ -45919,7 +45919,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="874" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="1" t="s">
         <v>2104</v>
       </c>
@@ -45963,7 +45963,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="875" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="1" t="s">
         <v>2105</v>
       </c>
@@ -46013,7 +46013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="876" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="1" t="s">
         <v>1897</v>
       </c>
@@ -46060,7 +46060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="877" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="1" t="s">
         <v>2107</v>
       </c>
@@ -46107,7 +46107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="878" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="1" t="s">
         <v>2108</v>
       </c>
@@ -46154,7 +46154,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="879" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="1" t="s">
         <v>2113</v>
       </c>
@@ -46195,7 +46195,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="880" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="1" t="s">
         <v>2115</v>
       </c>
@@ -46236,7 +46236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="881" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="1" t="s">
         <v>2118</v>
       </c>
@@ -46286,7 +46286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="882" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="1" t="s">
         <v>2120</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="883" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="1" t="s">
         <v>2120</v>
       </c>
@@ -46374,7 +46374,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="884" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="1" t="s">
         <v>2122</v>
       </c>
@@ -46415,7 +46415,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="885" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="1" t="s">
         <v>2123</v>
       </c>
@@ -46456,7 +46456,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="886" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="1" t="s">
         <v>2125</v>
       </c>
@@ -46506,7 +46506,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="887" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="1" t="s">
         <v>2129</v>
       </c>
@@ -46547,7 +46547,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="888" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="1" t="s">
         <v>2130</v>
       </c>
@@ -46597,7 +46597,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="889" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="1" t="s">
         <v>2120</v>
       </c>
@@ -46641,7 +46641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="890" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="1" t="s">
         <v>2120</v>
       </c>
@@ -46685,7 +46685,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="891" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="1" t="s">
         <v>2120</v>
       </c>
@@ -46729,7 +46729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="892" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="1" t="s">
         <v>2131</v>
       </c>
@@ -46773,7 +46773,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="893" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="1" t="s">
         <v>2134</v>
       </c>
@@ -46814,7 +46814,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="894" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="1" t="s">
         <v>2135</v>
       </c>
@@ -46858,7 +46858,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="895" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="1" t="s">
         <v>2136</v>
       </c>
@@ -46908,7 +46908,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="896" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="1" t="s">
         <v>2137</v>
       </c>
@@ -46949,7 +46949,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="1" t="s">
         <v>2139</v>
       </c>
@@ -46990,7 +46990,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="898" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="1" t="s">
         <v>2140</v>
       </c>
@@ -47037,7 +47037,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="899" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="1" t="s">
         <v>2141</v>
       </c>
@@ -47078,7 +47078,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="900" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="1" t="s">
         <v>2120</v>
       </c>
@@ -47122,7 +47122,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="901" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="1" t="s">
         <v>2144</v>
       </c>
@@ -47169,7 +47169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="902" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="1" t="s">
         <v>2145</v>
       </c>
@@ -47216,7 +47216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="903" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="1" t="s">
         <v>2147</v>
       </c>
@@ -47266,7 +47266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="904" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="1" t="s">
         <v>2148</v>
       </c>
@@ -47322,7 +47322,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="905" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="1" t="s">
         <v>2152</v>
       </c>
@@ -47363,7 +47363,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="906" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="1" t="s">
         <v>2153</v>
       </c>
@@ -47419,7 +47419,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="907" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="1" t="s">
         <v>2154</v>
       </c>
@@ -47466,7 +47466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="908" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="1" t="s">
         <v>2156</v>
       </c>
@@ -47513,7 +47513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="909" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="1" t="s">
         <v>2158</v>
       </c>
@@ -47569,7 +47569,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="910" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="1" t="s">
         <v>2162</v>
       </c>
@@ -47616,7 +47616,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="911" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="1" t="s">
         <v>2163</v>
       </c>
@@ -47663,7 +47663,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="912" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="1" t="s">
         <v>2164</v>
       </c>
@@ -47713,7 +47713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="913" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="1" t="s">
         <v>2165</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="914" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="1" t="s">
         <v>2169</v>
       </c>
@@ -47816,7 +47816,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="915" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="1" t="s">
         <v>2120</v>
       </c>
@@ -47860,7 +47860,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="916" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="1" t="s">
         <v>2170</v>
       </c>
@@ -47907,7 +47907,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="917" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="1" t="s">
         <v>2171</v>
       </c>
@@ -47957,7 +47957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="918" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="1" t="s">
         <v>2172</v>
       </c>
@@ -48004,7 +48004,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="919" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="1" t="s">
         <v>2174</v>
       </c>
@@ -48051,7 +48051,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="920" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="1" t="s">
         <v>2175</v>
       </c>
@@ -48098,7 +48098,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="921" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="1" t="s">
         <v>2176</v>
       </c>
@@ -48145,7 +48145,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="922" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="1" t="s">
         <v>2177</v>
       </c>
@@ -48189,7 +48189,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="923" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="1" t="s">
         <v>2179</v>
       </c>
@@ -48239,7 +48239,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="924" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="1" t="s">
         <v>2181</v>
       </c>
@@ -48286,7 +48286,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="925" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="1" t="s">
         <v>2182</v>
       </c>
@@ -48333,7 +48333,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="926" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="1" t="s">
         <v>2184</v>
       </c>
@@ -48380,7 +48380,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="927" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="1" t="s">
         <v>2185</v>
       </c>
@@ -48427,7 +48427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="928" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="1" t="s">
         <v>2186</v>
       </c>
@@ -48474,7 +48474,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="929" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="1" t="s">
         <v>2187</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="930" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="1" t="s">
         <v>2189</v>
       </c>
@@ -48568,7 +48568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="931" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="1" t="s">
         <v>2190</v>
       </c>
@@ -48615,7 +48615,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="932" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="1" t="s">
         <v>2193</v>
       </c>
@@ -48662,7 +48662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="933" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="1" t="s">
         <v>2194</v>
       </c>
@@ -48709,7 +48709,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="934" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="1" t="s">
         <v>2195</v>
       </c>
@@ -48756,7 +48756,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="935" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="1" t="s">
         <v>2196</v>
       </c>
@@ -48803,7 +48803,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="936" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="1" t="s">
         <v>2198</v>
       </c>
@@ -48850,7 +48850,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="937" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="1" t="s">
         <v>2200</v>
       </c>
@@ -48897,7 +48897,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="938" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="1" t="s">
         <v>2201</v>
       </c>
@@ -48944,7 +48944,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="939" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="1" t="s">
         <v>2205</v>
       </c>
@@ -48991,7 +48991,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="940" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="1" t="s">
         <v>2206</v>
       </c>
@@ -49038,7 +49038,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="941" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="1" t="s">
         <v>2207</v>
       </c>
@@ -49085,7 +49085,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="942" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="1" t="s">
         <v>2208</v>
       </c>
@@ -49132,7 +49132,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="943" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="1" t="s">
         <v>2209</v>
       </c>
@@ -49179,7 +49179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="944" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="1" t="s">
         <v>2210</v>
       </c>
@@ -49226,7 +49226,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="945" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="1" t="s">
         <v>2211</v>
       </c>
@@ -49273,7 +49273,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="946" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="1" t="s">
         <v>2215</v>
       </c>
@@ -49320,7 +49320,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="947" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="1" t="s">
         <v>2216</v>
       </c>
@@ -49358,7 +49358,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="948" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="1" t="s">
         <v>2218</v>
       </c>
@@ -49399,7 +49399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="949" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="1" t="s">
         <v>2219</v>
       </c>
@@ -49443,7 +49443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="950" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="1" t="s">
         <v>2220</v>
       </c>
@@ -49478,7 +49478,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="951" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="1" t="s">
         <v>2221</v>
       </c>
@@ -49522,7 +49522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="952" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="1" t="s">
         <v>2223</v>
       </c>
@@ -49569,7 +49569,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="953" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="1" t="s">
         <v>2224</v>
       </c>
@@ -49616,7 +49616,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="954" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="1" t="s">
         <v>2225</v>
       </c>
@@ -49666,7 +49666,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="955" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="1" t="s">
         <v>2226</v>
       </c>
@@ -49713,7 +49713,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="956" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="1" t="s">
         <v>2227</v>
       </c>
@@ -49760,7 +49760,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="957" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="1" t="s">
         <v>2229</v>
       </c>
@@ -49807,7 +49807,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="958" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="1" t="s">
         <v>2230</v>
       </c>
@@ -49860,7 +49860,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="959" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="1" t="s">
         <v>2234</v>
       </c>
@@ -49907,7 +49907,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="960" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="1" t="s">
         <v>2236</v>
       </c>
@@ -49954,7 +49954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="961" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="1" t="s">
         <v>2237</v>
       </c>
@@ -50001,7 +50001,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="962" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="1" t="s">
         <v>2238</v>
       </c>
@@ -50042,7 +50042,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="963" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="1" t="s">
         <v>2239</v>
       </c>
@@ -50092,7 +50092,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="964" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="1" t="s">
         <v>2240</v>
       </c>
@@ -50136,7 +50136,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="965" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="1" t="s">
         <v>2120</v>
       </c>
@@ -50180,7 +50180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="966" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="1" t="s">
         <v>2120</v>
       </c>
@@ -50224,7 +50224,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="967" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="1" t="s">
         <v>2241</v>
       </c>
@@ -50271,7 +50271,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="968" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="1" t="s">
         <v>2242</v>
       </c>
@@ -50312,7 +50312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="969" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="1" t="s">
         <v>2244</v>
       </c>
@@ -50353,7 +50353,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="970" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="1" t="s">
         <v>2245</v>
       </c>
@@ -50394,7 +50394,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="971" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="1" t="s">
         <v>2247</v>
       </c>
@@ -50441,7 +50441,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="972" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="1" t="s">
         <v>2248</v>
       </c>
@@ -50494,7 +50494,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="973" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="1" t="s">
         <v>2252</v>
       </c>
@@ -50547,7 +50547,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="974" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="1" t="s">
         <v>2253</v>
       </c>
@@ -50591,7 +50591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="975" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="1" t="s">
         <v>2257</v>
       </c>
@@ -50638,7 +50638,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="976" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="1" t="s">
         <v>2258</v>
       </c>
@@ -50673,7 +50673,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="977" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="1" t="s">
         <v>2260</v>
       </c>
@@ -50726,7 +50726,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="978" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="1" t="s">
         <v>2261</v>
       </c>
@@ -50779,7 +50779,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="979" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="1" t="s">
         <v>2262</v>
       </c>
@@ -50820,7 +50820,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="980" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="1" t="s">
         <v>2263</v>
       </c>
@@ -50858,7 +50858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="981" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="1" t="s">
         <v>2265</v>
       </c>
@@ -50899,7 +50899,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="982" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="1" t="s">
         <v>2266</v>
       </c>
@@ -50949,7 +50949,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="983" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="1" t="s">
         <v>2267</v>
       </c>
@@ -50993,7 +50993,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="984" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="1" t="s">
         <v>2268</v>
       </c>
@@ -51043,7 +51043,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="985" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="1" t="s">
         <v>2271</v>
       </c>
@@ -51093,7 +51093,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="986" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="1" t="s">
         <v>2272</v>
       </c>
@@ -51143,7 +51143,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="987" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="1" t="s">
         <v>2273</v>
       </c>
@@ -51196,7 +51196,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="988" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="1" t="s">
         <v>2277</v>
       </c>
@@ -51243,7 +51243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="989" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="1" t="s">
         <v>2279</v>
       </c>
@@ -51293,7 +51293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="990" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="1" t="s">
         <v>2280</v>
       </c>
@@ -51334,7 +51334,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="991" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="1" t="s">
         <v>2281</v>
       </c>
@@ -51384,7 +51384,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="992" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="1" t="s">
         <v>2282</v>
       </c>
@@ -51431,7 +51431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="993" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="1" t="s">
         <v>2283</v>
       </c>
@@ -51478,7 +51478,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="994" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="1" t="s">
         <v>2284</v>
       </c>
@@ -51525,7 +51525,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="995" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="1" t="s">
         <v>2285</v>
       </c>
@@ -51575,7 +51575,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="996" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="1" t="s">
         <v>2289</v>
       </c>
@@ -51625,7 +51625,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="997" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="1" t="s">
         <v>2290</v>
       </c>
@@ -51672,7 +51672,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="998" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="1" t="s">
         <v>2291</v>
       </c>
@@ -51713,7 +51713,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="999" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="1" t="s">
         <v>2292</v>
       </c>
@@ -51754,7 +51754,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="1000" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="1" t="s">
         <v>2293</v>
       </c>
@@ -51801,7 +51801,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="1001" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="1" t="s">
         <v>2297</v>
       </c>
@@ -51847,16 +51847,27 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R1001" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Biệt thự, liền kề"/>
+        <filter val="Bán mặt phố Khâm Thiên hơn 21 tỷ 80m2 kinh doanh 5 tầng cho thuê 40 triệu/tháng LH 0968119926"/>
+        <filter val="Bán mặt phố trung tâm quận Đống Đa, 36m2, MT 6m, kinh doanh giá chỉ 7.3 tỷ"/>
+        <filter val="Bán Nhà Mặt Phố Pháo Đài Láng, kinh doanh tấp nập, DT 56m, 5T, MT 4.5m giá 11.2 tỷ"/>
+        <filter val="Bán nhà mặt phố Vũ Thạnh, Hà Nội 100m2, có 3 tầng"/>
+        <filter val="Bán tòa nhà 9 tầng 234m2 MT9m mặt phố Hoàng Cầu vị trí đẹp KD tốt giá 100 tỷ. LH 0912442669"/>
+        <filter val="CHÍNH CHỦ CẦN BÁN NHÀ MẶT PHỐ KHÂM THIÊM, ĐỐNG ĐA 60m2x4 TẦNG - LÔ GÓC - KINH DOANH NGÀY ĐÊM"/>
+        <filter val="Mặt phố Đống Đa quận 1 MP, một mặt ngõ, oto tránh ba mặt thoáng, kinh doanh đỉnh"/>
+        <filter val="Nhà đẹp về ở ngay 49m2x 5 tầng gần mặt phố Láng Hạ - Đống Đa gần phố - LH: 0969284951"/>
+        <filter val="Siêu phẩm kinh doanh mặt phố Tôn Đức Thắng, Đống Đa 106m2, 7 tầng 27.6 tỷ"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{E75DBE7A-BAD7-4DA6-A53B-527AECD028E1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R1001" xr:uid="{C5598E1C-0388-4183-9ECD-AC0C265017EF}">
+      <autoFilter ref="A1:R1001" xr:uid="{F9D87DC5-BC69-4BC9-9063-C573C1A00ADC}">
         <filterColumn colId="11">
           <filters>
             <filter val="Bán nhà mặt phố (nhà mặt tiền trên các tuyến phố)"/>
